--- a/week-9/project-2/SMIS.xlsx
+++ b/week-9/project-2/SMIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PAU SMIS</t>
   </si>
@@ -31,31 +31,28 @@
     <t>Level</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>124434</t>
+  </si>
+  <si>
+    <t>computer science</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>waris</t>
+  </si>
+  <si>
+    <t>3214236</t>
+  </si>
+  <si>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,34 +429,20 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
